--- a/db/dummydata/st_local_charges.xlsx
+++ b/db/dummydata/st_local_charges.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="79">
   <si>
     <t>EFFECTIVE_DATE</t>
   </si>
@@ -22,7 +22,7 @@
     <t>DESTINATION</t>
   </si>
   <si>
-    <t>SERVICE LEVEL</t>
+    <t>SERVICE_LEVEL</t>
   </si>
   <si>
     <t>FEE</t>
@@ -190,9 +190,6 @@
     <t>Nhava Sheva</t>
   </si>
   <si>
-    <t>per_CBM</t>
-  </si>
-  <si>
     <t>Compliance Fee</t>
   </si>
   <si>
@@ -214,9 +211,6 @@
     <t>AFR</t>
   </si>
   <si>
-    <t>per_shipment</t>
-  </si>
-  <si>
     <t>JP24 FEE</t>
   </si>
   <si>
@@ -224,9 +218,6 @@
   </si>
   <si>
     <t>Toronto</t>
-  </si>
-  <si>
-    <t>per_Shipment</t>
   </si>
   <si>
     <t>E-Manifest</t>
@@ -1632,7 +1623,7 @@
         <v>27</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="M31" s="6">
         <v>6.0</v>
@@ -1655,13 +1646,13 @@
         <v>52</v>
       </c>
       <c r="E32" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>25</v>
@@ -1714,7 +1705,7 @@
         <v>27</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="M33" s="6">
         <v>4.0</v>
@@ -1731,7 +1722,7 @@
         <v>43597.0</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="6" t="s">
@@ -1770,7 +1761,7 @@
         <v>43598.0</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="6" t="s">
@@ -1792,7 +1783,7 @@
         <v>27</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="M35" s="6">
         <v>6.0</v>
@@ -1809,7 +1800,7 @@
         <v>43599.0</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>44</v>
@@ -1847,7 +1838,7 @@
         <v>43600.0</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>33</v>
@@ -1868,7 +1859,7 @@
         <v>27</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="M37" s="6">
         <v>6.0</v>
@@ -1885,7 +1876,7 @@
         <v>43601.0</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>51</v>
@@ -1926,20 +1917,20 @@
         <v>43602.0</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E39" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F39" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="H39" s="6" t="s">
         <v>25</v>
       </c>
@@ -1950,7 +1941,7 @@
         <v>27</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="P39" s="6">
         <v>35.0</v>
@@ -1967,7 +1958,7 @@
         <v>43603.0</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>51</v>
@@ -1991,7 +1982,7 @@
         <v>27</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="M40" s="6">
         <v>5.5</v>
@@ -2008,19 +1999,19 @@
         <v>43604.0</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>25</v>
@@ -2032,7 +2023,7 @@
         <v>27</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="P41" s="6">
         <v>35.0</v>
@@ -2049,7 +2040,7 @@
         <v>43605.0</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>52</v>
@@ -2073,7 +2064,7 @@
         <v>27</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="M42" s="6">
         <v>4.5</v>
@@ -2090,7 +2081,7 @@
         <v>43606.0</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>30</v>
@@ -2111,7 +2102,7 @@
         <v>27</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="L43" s="6"/>
       <c r="P43" s="6">
@@ -2130,17 +2121,17 @@
         <v>43607.0</v>
       </c>
       <c r="C44" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E44" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="H44" s="6" t="s">
         <v>25</v>
       </c>
@@ -2151,7 +2142,7 @@
         <v>27</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="L44" s="6"/>
       <c r="P44" s="6">
@@ -2170,7 +2161,7 @@
         <v>43608.0</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>51</v>
@@ -2211,7 +2202,7 @@
         <v>43609.0</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>51</v>
@@ -2235,7 +2226,7 @@
         <v>27</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="M46" s="6">
         <v>6.0</v>
@@ -2252,7 +2243,7 @@
         <v>43610.0</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>52</v>
@@ -2293,7 +2284,7 @@
         <v>43611.0</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>52</v>
@@ -2317,7 +2308,7 @@
         <v>27</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="M48" s="6">
         <v>6.0</v>
@@ -2334,7 +2325,7 @@
         <v>43612.0</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>51</v>
@@ -2358,7 +2349,7 @@
         <v>27</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="M49" s="6">
         <v>6.0</v>
@@ -2375,7 +2366,7 @@
         <v>43613.0</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>52</v>
@@ -2416,7 +2407,7 @@
         <v>43614.0</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>30</v>
@@ -2454,11 +2445,11 @@
         <v>43615.0</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>23</v>
@@ -2493,7 +2484,7 @@
         <v>43616.0</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="6" t="s">
@@ -2532,11 +2523,11 @@
         <v>43617.0</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>23</v>
@@ -2571,7 +2562,7 @@
         <v>43618.0</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="6" t="s">
@@ -2610,11 +2601,11 @@
         <v>43619.0</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>23</v>
@@ -2649,7 +2640,7 @@
         <v>43620.0</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="6" t="s">
@@ -2688,7 +2679,7 @@
         <v>43621.0</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>33</v>
@@ -2709,7 +2700,7 @@
         <v>27</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="M58" s="6">
         <v>6.0</v>
